--- a/P1-instruction/stroopdata-P1.xlsx
+++ b/P1-instruction/stroopdata-P1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzt/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/www/html/machine/P1-instruction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>P1项目-检验心理学现象</t>
     <rPh sb="2" eb="3">
@@ -460,6 +460,34 @@
     </rPh>
     <rPh sb="146" eb="147">
       <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：项目参考统计基础-第10a课，键盘t统计</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'ch</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di'shi'ke</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jian'p</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tong'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1768,7 +1796,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns="" Requires="cx">
+      <mc:Choice xmlns="" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="图表 1"/>
@@ -1836,7 +1864,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns="" Requires="cx">
+      <mc:Choice xmlns="" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="图表 2"/>
@@ -2171,7 +2199,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2276,9 @@
       <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>

--- a/P1-instruction/stroopdata-P1.xlsx
+++ b/P1-instruction/stroopdata-P1.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzt/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Machine-Learning\P1-instruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="4" r:id="rId1"/>
     <sheet name="stroopdata" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">stroopdata!$B$1</definedName>
-    <definedName name="_xlchart.1" hidden="1">stroopdata!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.2" hidden="1">stroopdata!$A$1</definedName>
-    <definedName name="_xlchart.3" hidden="1">stroopdata!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.0" hidden="1">stroopdata!$A$1</definedName>
+    <definedName name="_xlchart.1" hidden="1">stroopdata!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.2" hidden="1">stroopdata!$B$1</definedName>
+    <definedName name="_xlchart.3" hidden="1">stroopdata!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.4" hidden="1">stroopdata!$Q$2:$Q$25</definedName>
+    <definedName name="_xlchart.5" hidden="1">stroopdata!$Q$2:$Q$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,11 +42,11 @@
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 我们的自变量是什么？因变量是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自变量：参与者执行任务时的文字条件
@@ -85,246 +87,89 @@
     <rPh sb="32" eb="33">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2.此任务的适当假设集是什么？你需要以文字和数学符号方式对假设集中的零假设和对立假设加以说明，并对数学符号进行定义。你想执行什么类型的统计检验？为你的选择提供正当理由（比如，为何该实验满足你所选统计检验的前置条件）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H0：两种文字条件下的实验时间没有显著区别，即M1=M2
-Ha：两种文字条件下的实验时间有显著区别，即M1≠M2
-统计检验方式：相依样本t检验
-理由：我们不知道总体的μ和σ，只能从实验的样本去进行推断，且相依样本能排除不同人对不同文字条件潜在的适应性因素</t>
-    <rPh sb="3" eb="4">
-      <t>liang'zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wen'zi'tiao'jian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>d</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'yan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xian'zhu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>qu'bie</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>tong'ji</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>jian'y</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>fang'shi</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>xiang'yi</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>jian'yan</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>li'you</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>zong'ti</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>d</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>zhi'neng</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>shi'yan</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>d</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>qu</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>tui'duan</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>xiang'yi</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>neng</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>pai'ch</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>wen'zi'tiao</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>jian</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>qian'z</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>d</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>shi'ying</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>yin'su</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. 报告关于此数据集的一些描述性统计。包含至少一个集中趋势测量和至少一个变异测量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Incongruent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值：M(Congruent)≈14.05；M(Incongruent)≈22.16
-标准偏差：S(Congruent)≈3.48；S(Incongruent)≈4.7</t>
-    <rPh sb="0" eb="1">
-      <t>jun'zhi</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>biao'zh</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>pian'cha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4. 提供显示样本数据分布的一个或两个可视化。用一两句话说明你从图中观察到的结果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5. 现在，执行统计测试并报告你的结果。你的置信水平和关键统计值是多少？你是否成功拒绝零假设？对试验任务得出一个结论。结果是否与你的期望一致？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6. 可选：你觉得导致所观察到的效应的原因是什么？你是否能想到会取得类似效应的替代或类似任务？进行一些调查研究将有助于你思考这两个问题！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可视化见stoopdata工作簿。
 观察结果：两种文字条件下的任务结果都呈正偏斜分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>μ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>平方差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Congruent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据α=0.05，自由度23，且为双尾t检验，得出t边界值为±2.069，而由计算出的t(Congruent)&lt;-2.069可得出结论：拒绝零假设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>置信水平：95%，显著性水平0.05
 结论：拒绝零假设，第一种条件下所花费的时间远低于第二种条件下任务花费的时间（推导过程见工作簿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可能原因：人们潜意识会将文字与其代表的颜色关联起来，当要说出与文字不同的颜色时，需要花费更多的时间进行判断。
@@ -461,16 +306,182 @@
     <rPh sb="146" eb="147">
       <t>shu'liang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值：M(Congruent)≈14.05；M(Incongruent)≈22.16
+样本标准偏差：S(Congruent)≈3.56；S(Incongruent)≈4.8</t>
+    <rPh sb="0" eb="1">
+      <t>jun'zhi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>biao'zh</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>pian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据α=0.05，自由度df=23，且为双尾t检验，得出t临界值为±2.069，而由计算出的t(Congruent)&lt;-2.069可得出结论：拒绝零假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设M(Congruent)表示一致文字条件下总体花费的平均时间，M(Incongruent)表示非一致文字条件下总体花费的平均时间
+H0：两种文字条件下的实验时间没有显著区别，即M(Congruent)=M(Incongruent)
+Ha：两种文字条件下的实验时间有显著区别，即M(Congruent)≠M(Incongruent)
+统计检验方式：相依样本t检验
+理由：首先，我们不知道总体的μ和σ，只能从实验的样本去进行推断，因此无法使用z检验；其次，我们拥有的数据是两组样本量较小的样本，所以不适用单样本t检验；且两组样本数据是从同一批参与者先后测试并记录下的，所以样本是相依样本，因此采取相依样本t检验方法。</t>
+    <rPh sb="3" eb="4">
+      <t>liang'zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'zi'tiao'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xian'zhu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qu'bie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>jian'y</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xiang'yi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>jian'yan</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>li'you</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zong'ti</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>d</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>shi'yan</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>d</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>tui'duan</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>xiang'yi</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>pai'ch</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wen'zi'tiao</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>qian'z</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>d</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>shi'ying</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>yin'su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -516,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -584,25 +601,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,16 +631,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - 着色 5" xfId="3" builtinId="47"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
@@ -675,7 +699,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.3</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -702,7 +726,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{F9EB884A-E090-4CCA-8319-097606033AA8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.2</cx:f>
+              <cx:f>_xlchart.0</cx:f>
               <cx:v>Congruent</cx:v>
             </cx:txData>
           </cx:tx>
@@ -731,7 +755,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -758,7 +782,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B4C82E77-69F0-4224-8B06-36DC7FE8F213}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.0</cx:f>
+              <cx:f>_xlchart.2</cx:f>
               <cx:v>Incongruent</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1768,7 +1792,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns="" Requires="cx">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="图表 1"/>
@@ -1788,7 +1812,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="矩形 1"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -1836,7 +1860,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns="" Requires="cx">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="图表 2"/>
@@ -1856,7 +1880,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="矩形 2"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -2170,112 +2194,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="98.33203125" customWidth="1"/>
+    <col min="1" max="1" width="98.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="48" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="56.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="165.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="37.5">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="37.5">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="42" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="11" spans="1:1" ht="53.1" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="37.5">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="65.099999999999994" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2287,30 +2311,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30:T33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2319,14 +2343,16 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
@@ -2341,11 +2367,11 @@
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="13">
         <f>(A2-$D$2)^2</f>
         <v>3.8892770156250007</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="13">
         <f>(B2-$E$2)^2</f>
         <v>7.4961876736111321</v>
       </c>
@@ -2356,16 +2382,18 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="Q2">
+      <c r="Q2" s="12">
         <f>B2-A2</f>
         <v>7.1989999999999981</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="12">
         <f>(Q2-$Q$28)^2</f>
         <v>0.58643687673611011</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>16.791</v>
       </c>
@@ -2374,11 +2402,11 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="F3" s="13">
         <f t="shared" ref="F3:F25" si="0">(A3-$D$2)^2</f>
         <v>7.5069150156249975</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G25" si="1">(B3-$E$2)^2</f>
         <v>10.72507917361113</v>
       </c>
@@ -2389,16 +2417,18 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="Q3">
+      <c r="Q3" s="12">
         <f t="shared" ref="Q3:Q25" si="2">B3-A3</f>
         <v>1.9499999999999993</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="12">
         <f t="shared" ref="R3:R25" si="3">(Q3-$Q$28)^2</f>
         <v>36.177718793402754</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
@@ -2407,11 +2437,11 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>20.134290765625007</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="13">
         <f t="shared" si="1"/>
         <v>0.64307034027778409</v>
       </c>
@@ -2422,16 +2452,18 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="Q4">
+      <c r="Q4" s="12">
         <f t="shared" si="2"/>
         <v>11.649999999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="12">
         <f t="shared" si="3"/>
         <v>13.580760460069452</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
@@ -2440,11 +2472,11 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>29.388596265625001</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="13">
         <f t="shared" si="1"/>
         <v>40.055186173611155</v>
       </c>
@@ -2455,16 +2487,18 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="Q5">
+      <c r="Q5" s="12">
         <f t="shared" si="2"/>
         <v>7.0569999999999986</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="12">
         <f t="shared" si="3"/>
         <v>0.8240857100694422</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>14.669</v>
       </c>
@@ -2473,11 +2507,11 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>0.38176951562499967</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>0.61950017361110832</v>
       </c>
@@ -2488,16 +2522,18 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="Q6">
+      <c r="Q6" s="12">
         <f t="shared" si="2"/>
         <v>8.1340000000000003</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="12">
         <f t="shared" si="3"/>
         <v>2.8631460069445447E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>12.238</v>
       </c>
@@ -2506,11 +2542,11 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>3.2874222656250045</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1.2948543402777835</v>
       </c>
@@ -2521,16 +2557,18 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="Q7">
+      <c r="Q7" s="12">
         <f t="shared" si="2"/>
         <v>8.64</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="12">
         <f t="shared" si="3"/>
         <v>0.4559062934027821</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>14.692</v>
       </c>
@@ -2539,11 +2577,11 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>0.41072076562499926</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>6.5335620069444271</v>
       </c>
@@ -2554,16 +2592,18 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="Q8">
+      <c r="Q8" s="12">
         <f t="shared" si="2"/>
         <v>9.879999999999999</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="12">
         <f t="shared" si="3"/>
         <v>3.6680229600694507</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
@@ -2572,11 +2612,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>25.645362015625008</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>21.362113673611152</v>
       </c>
@@ -2587,16 +2627,18 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="Q9">
+      <c r="Q9" s="12">
         <f t="shared" si="2"/>
         <v>8.4069999999999983</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="12">
         <f t="shared" si="3"/>
         <v>0.1955482100694452</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
@@ -2605,11 +2647,11 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>21.623662515625011</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>1.5723070069444498</v>
       </c>
@@ -2620,16 +2662,18 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="Q10">
+      <c r="Q10" s="12">
         <f t="shared" si="2"/>
         <v>11.361000000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="12">
         <f t="shared" si="3"/>
         <v>11.5342310434028</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>14.48</v>
       </c>
@@ -2638,11 +2682,11 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>0.18393376562499972</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18.199467006944424</v>
       </c>
@@ -2653,16 +2697,18 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="Q11">
+      <c r="Q11" s="12">
         <f t="shared" si="2"/>
         <v>11.802</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="12">
         <f t="shared" si="3"/>
         <v>14.724167793402795</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
@@ -2671,11 +2717,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>68.506659765624974</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>6.290482006944436</v>
       </c>
@@ -2686,16 +2732,18 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="Q12">
+      <c r="Q12" s="12">
         <f t="shared" si="2"/>
         <v>2.1960000000000015</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="12">
         <f t="shared" si="3"/>
         <v>33.278957293402733</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>15.298</v>
       </c>
@@ -2704,11 +2752,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>1.5546972656249982</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>11.369822006944473</v>
       </c>
@@ -2719,16 +2767,18 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="Q13">
+      <c r="Q13" s="12">
         <f t="shared" si="2"/>
         <v>3.3459999999999983</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="12">
         <f t="shared" si="3"/>
         <v>21.333236460069436</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>15.073</v>
       </c>
@@ -2737,11 +2787,11 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>1.0442285156249993</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>20.303285006944453</v>
       </c>
@@ -2752,16 +2802,18 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="Q14">
+      <c r="Q14" s="12">
         <f t="shared" si="2"/>
         <v>2.4370000000000012</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="12">
         <f t="shared" si="3"/>
         <v>30.556480710069401</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
@@ -2770,11 +2822,11 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>8.2821645156249861</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2.8423150069444589</v>
       </c>
@@ -2785,16 +2837,18 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="Q15">
+      <c r="Q15" s="12">
         <f t="shared" si="2"/>
         <v>3.4009999999999998</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="12">
         <f t="shared" si="3"/>
         <v>20.828194376736089</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>18.2</v>
       </c>
@@ -2803,11 +2857,11 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>17.213163765624987</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>175.27332750694444</v>
       </c>
@@ -2818,16 +2872,18 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="Q16">
+      <c r="Q16" s="12">
         <f t="shared" si="2"/>
         <v>17.055000000000003</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="12">
         <f t="shared" si="3"/>
         <v>82.631887543402897</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>12.13</v>
       </c>
@@ -2836,11 +2892,11 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>3.6907212656249997</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>2.0187673611110735E-2</v>
       </c>
@@ -2851,16 +2907,18 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="Q17">
+      <c r="Q17" s="12">
         <f t="shared" si="2"/>
         <v>10.028</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="12">
         <f t="shared" si="3"/>
         <v>4.2568286267361239</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
@@ -2869,11 +2927,11 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>19.748025015625004</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>9.7536495069444236</v>
       </c>
@@ -2884,16 +2942,18 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="Q18">
+      <c r="Q18" s="12">
         <f t="shared" si="2"/>
         <v>6.6439999999999984</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="12">
         <f t="shared" si="3"/>
         <v>1.7444906267361087</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
@@ -2902,11 +2962,11 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8">
+      <c r="F19" s="13">
         <f t="shared" si="0"/>
         <v>11.642597015625009</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>2.5183045069444576</v>
       </c>
@@ -2917,16 +2977,18 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="Q19">
+      <c r="Q19" s="12">
         <f t="shared" si="2"/>
         <v>9.7899999999999991</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="12">
         <f t="shared" si="3"/>
         <v>3.331385460069451</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
@@ -2935,11 +2997,11 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>7.3285257656250069</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>21.076515840277796</v>
       </c>
@@ -2950,16 +3012,18 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="Q20">
+      <c r="Q20" s="12">
         <f t="shared" si="2"/>
         <v>6.0810000000000013</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="12">
         <f t="shared" si="3"/>
         <v>3.5486710434027628</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>12.369</v>
       </c>
@@ -2968,11 +3032,11 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>2.8295445156250034</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>150.60402934027763</v>
       </c>
@@ -2983,16 +3047,18 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="Q21">
+      <c r="Q21" s="12">
         <f t="shared" si="2"/>
         <v>21.918999999999997</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="12">
         <f t="shared" si="3"/>
         <v>194.71993021006946</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
@@ -3001,11 +3067,11 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>1.2257257656249998</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>3.5271970069444287</v>
       </c>
@@ -3016,16 +3082,18 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="Q22">
+      <c r="Q22" s="12">
         <f t="shared" si="2"/>
         <v>10.949999999999998</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="12">
         <f t="shared" si="3"/>
         <v>8.9114687934027792</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
@@ -3034,11 +3102,11 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>3.3078515624999923E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>16.450460006944457</v>
       </c>
@@ -3049,16 +3117,18 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="Q23">
+      <c r="Q23" s="12">
         <f t="shared" si="2"/>
         <v>3.7270000000000003</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="12">
         <f t="shared" si="3"/>
         <v>17.958878210069418</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>19.71</v>
       </c>
@@ -3067,11 +3137,11 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8">
+      <c r="F24" s="13">
         <f t="shared" si="0"/>
         <v>32.022866265624998</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>1.7710069444442133E-3</v>
       </c>
@@ -3082,16 +3152,18 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="Q24">
+      <c r="Q24" s="12">
         <f t="shared" si="2"/>
         <v>2.347999999999999</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="12">
         <f t="shared" si="3"/>
         <v>31.548348626736093</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
@@ -3100,11 +3172,11 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>3.8137207656250021</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>0.73773784027778211</v>
       </c>
@@ -3115,16 +3187,18 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="Q25">
+      <c r="Q25" s="12">
         <f t="shared" si="2"/>
         <v>5.1529999999999987</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="12">
         <f t="shared" si="3"/>
         <v>7.9061723767361034</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3136,15 +3210,19 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -3153,26 +3231,27 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="Q27" t="s">
+      <c r="Q27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R27" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
-        <f>SQRT(SUM(F2:F25)/24)</f>
-        <v>3.4844157127666331</v>
+        <f>SQRT(SUM(F2:F25)/(24-1))</f>
+        <v>3.5593579576451955</v>
       </c>
       <c r="G28" s="8">
-        <f>SQRT(SUM(G2:G25)/24)</f>
-        <v>4.6960551345133172</v>
+        <f>SQRT(SUM(G2:G25)/(24-1))</f>
+        <v>4.7970571224691376</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -3181,20 +3260,21 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="Q28">
+      <c r="Q28" s="12">
         <f>AVERAGE(Q2:Q25)</f>
         <v>7.964791666666664</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="12">
         <f>SQRT(SUM(R2:R25)/23)</f>
         <v>4.8648269103590538</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="12">
         <f>($D$2-$E$2)/($R$28/SQRT(24))</f>
         <v>-8.0207069441099623</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3206,8 +3286,12 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3219,37 +3303,38 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="Q30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="Q30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="17:20">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q30:T33"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/P1-instruction/stroopdata-P1.xlsx
+++ b/P1-instruction/stroopdata-P1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,6 @@
     <definedName name="_xlchart.1" hidden="1">stroopdata!$A$2:$A$25</definedName>
     <definedName name="_xlchart.2" hidden="1">stroopdata!$B$1</definedName>
     <definedName name="_xlchart.3" hidden="1">stroopdata!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.4" hidden="1">stroopdata!$Q$2:$Q$25</definedName>
-    <definedName name="_xlchart.5" hidden="1">stroopdata!$Q$2:$Q$25</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -42,11 +40,11 @@
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1. 我们的自变量是什么？因变量是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自变量：参与者执行任务时的文字条件
@@ -87,89 +85,85 @@
     <rPh sb="32" eb="33">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2.此任务的适当假设集是什么？你需要以文字和数学符号方式对假设集中的零假设和对立假设加以说明，并对数学符号进行定义。你想执行什么类型的统计检验？为你的选择提供正当理由（比如，为何该实验满足你所选统计检验的前置条件）。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SS2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Si</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3. 报告关于此数据集的一些描述性统计。包含至少一个集中趋势测量和至少一个变异测量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Incongruent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4. 提供显示样本数据分布的一个或两个可视化。用一两句话说明你从图中观察到的结果。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5. 现在，执行统计测试并报告你的结果。你的置信水平和关键统计值是多少？你是否成功拒绝零假设？对试验任务得出一个结论。结果是否与你的期望一致？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6. 可选：你觉得导致所观察到的效应的原因是什么？你是否能想到会取得类似效应的替代或类似任务？进行一些调查研究将有助于你思考这两个问题！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可视化见stoopdata工作簿。
 观察结果：两种文字条件下的任务结果都呈正偏斜分布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>差异</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>μ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平方差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Congruent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>置信水平：95%，显著性水平0.05
 结论：拒绝零假设，第一种条件下所花费的时间远低于第二种条件下任务花费的时间（推导过程见工作簿）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可能原因：人们潜意识会将文字与其代表的颜色关联起来，当要说出与文字不同的颜色时，需要花费更多的时间进行判断。
@@ -306,7 +300,7 @@
     <rPh sb="146" eb="147">
       <t>shu'liang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>均值：M(Congruent)≈14.05；M(Incongruent)≈22.16
@@ -320,11 +314,7 @@
     <rPh sb="45" eb="46">
       <t>pian'cha</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据α=0.05，自由度df=23，且为双尾t检验，得出t临界值为±2.069，而由计算出的t(Congruent)&lt;-2.069可得出结论：拒绝零假设</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>假设M(Congruent)表示一致文字条件下总体花费的平均时间，M(Incongruent)表示非一致文字条件下总体花费的平均时间
@@ -464,16 +454,45 @@
     <rPh sb="125" eb="126">
       <t>yin'su</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(23)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据α=0.05，自由度df=23，且为双尾t检验，得出t临界值为±2.069，而由计算出的t(Congruent)&lt;-2.069可得出结论：拒绝零假设，p&lt;0.025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -603,26 +622,26 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -631,17 +650,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - 着色 5" xfId="3" builtinId="47"/>
@@ -2194,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2225,7 +2248,7 @@
     </row>
     <row r="5" spans="1:1" ht="165.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="37.5">
@@ -2235,7 +2258,7 @@
     </row>
     <row r="7" spans="1:1" ht="45" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="37.5">
@@ -2255,7 +2278,7 @@
     </row>
     <row r="11" spans="1:1" ht="53.1" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="37.5">
@@ -2265,7 +2288,7 @@
     </row>
     <row r="13" spans="1:1" ht="65.099999999999994" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2299,7 +2322,7 @@
       <c r="A23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2311,15 +2334,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2330,10 +2353,10 @@
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9"/>
@@ -2343,10 +2366,10 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="10"/>
@@ -2367,11 +2390,11 @@
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f>(A2-$D$2)^2</f>
         <v>3.8892770156250007</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f>(B2-$E$2)^2</f>
         <v>7.4961876736111321</v>
       </c>
@@ -2382,11 +2405,11 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <f>B2-A2</f>
         <v>7.1989999999999981</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <f>(Q2-$Q$28)^2</f>
         <v>0.58643687673611011</v>
       </c>
@@ -2402,11 +2425,11 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F25" si="0">(A3-$D$2)^2</f>
         <v>7.5069150156249975</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G25" si="1">(B3-$E$2)^2</f>
         <v>10.72507917361113</v>
       </c>
@@ -2417,11 +2440,11 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <f t="shared" ref="Q3:Q25" si="2">B3-A3</f>
         <v>1.9499999999999993</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <f t="shared" ref="R3:R25" si="3">(Q3-$Q$28)^2</f>
         <v>36.177718793402754</v>
       </c>
@@ -2437,11 +2460,11 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>20.134290765625007</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" si="1"/>
         <v>0.64307034027778409</v>
       </c>
@@ -2452,11 +2475,11 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <f t="shared" si="2"/>
         <v>11.649999999999999</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <f t="shared" si="3"/>
         <v>13.580760460069452</v>
       </c>
@@ -2472,11 +2495,11 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>29.388596265625001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>40.055186173611155</v>
       </c>
@@ -2487,11 +2510,11 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f t="shared" si="2"/>
         <v>7.0569999999999986</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <f t="shared" si="3"/>
         <v>0.8240857100694422</v>
       </c>
@@ -2507,11 +2530,11 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>0.38176951562499967</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>0.61950017361110832</v>
       </c>
@@ -2522,11 +2545,11 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f t="shared" si="2"/>
         <v>8.1340000000000003</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="11">
         <f t="shared" si="3"/>
         <v>2.8631460069445447E-2</v>
       </c>
@@ -2542,11 +2565,11 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>3.2874222656250045</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>1.2948543402777835</v>
       </c>
@@ -2557,11 +2580,11 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f t="shared" si="2"/>
         <v>8.64</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <f t="shared" si="3"/>
         <v>0.4559062934027821</v>
       </c>
@@ -2577,11 +2600,11 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>0.41072076562499926</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>6.5335620069444271</v>
       </c>
@@ -2592,11 +2615,11 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <f t="shared" si="2"/>
         <v>9.879999999999999</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <f t="shared" si="3"/>
         <v>3.6680229600694507</v>
       </c>
@@ -2612,11 +2635,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>25.645362015625008</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>21.362113673611152</v>
       </c>
@@ -2627,11 +2650,11 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f t="shared" si="2"/>
         <v>8.4069999999999983</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f t="shared" si="3"/>
         <v>0.1955482100694452</v>
       </c>
@@ -2647,11 +2670,11 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>21.623662515625011</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>1.5723070069444498</v>
       </c>
@@ -2662,11 +2685,11 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <f t="shared" si="2"/>
         <v>11.361000000000001</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <f t="shared" si="3"/>
         <v>11.5342310434028</v>
       </c>
@@ -2682,11 +2705,11 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>0.18393376562499972</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>18.199467006944424</v>
       </c>
@@ -2697,11 +2720,11 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" si="2"/>
         <v>11.802</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="11">
         <f t="shared" si="3"/>
         <v>14.724167793402795</v>
       </c>
@@ -2717,11 +2740,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>68.506659765624974</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>6.290482006944436</v>
       </c>
@@ -2732,11 +2755,11 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f t="shared" si="2"/>
         <v>2.1960000000000015</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <f t="shared" si="3"/>
         <v>33.278957293402733</v>
       </c>
@@ -2752,11 +2775,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>1.5546972656249982</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>11.369822006944473</v>
       </c>
@@ -2767,11 +2790,11 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <f t="shared" si="2"/>
         <v>3.3459999999999983</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <f t="shared" si="3"/>
         <v>21.333236460069436</v>
       </c>
@@ -2787,11 +2810,11 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>1.0442285156249993</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>20.303285006944453</v>
       </c>
@@ -2802,11 +2825,11 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <f t="shared" si="2"/>
         <v>2.4370000000000012</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="11">
         <f t="shared" si="3"/>
         <v>30.556480710069401</v>
       </c>
@@ -2822,11 +2845,11 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>8.2821645156249861</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
         <v>2.8423150069444589</v>
       </c>
@@ -2837,11 +2860,11 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <f t="shared" si="2"/>
         <v>3.4009999999999998</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <f t="shared" si="3"/>
         <v>20.828194376736089</v>
       </c>
@@ -2857,11 +2880,11 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>17.213163765624987</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>175.27332750694444</v>
       </c>
@@ -2872,11 +2895,11 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <f t="shared" si="2"/>
         <v>17.055000000000003</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <f t="shared" si="3"/>
         <v>82.631887543402897</v>
       </c>
@@ -2892,11 +2915,11 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>3.6907212656249997</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
         <v>2.0187673611110735E-2</v>
       </c>
@@ -2907,11 +2930,11 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <f t="shared" si="2"/>
         <v>10.028</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <f t="shared" si="3"/>
         <v>4.2568286267361239</v>
       </c>
@@ -2927,11 +2950,11 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>19.748025015625004</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f t="shared" si="1"/>
         <v>9.7536495069444236</v>
       </c>
@@ -2942,11 +2965,11 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <f t="shared" si="2"/>
         <v>6.6439999999999984</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <f t="shared" si="3"/>
         <v>1.7444906267361087</v>
       </c>
@@ -2962,11 +2985,11 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>11.642597015625009</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
         <v>2.5183045069444576</v>
       </c>
@@ -2977,11 +3000,11 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <f t="shared" si="2"/>
         <v>9.7899999999999991</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <f t="shared" si="3"/>
         <v>3.331385460069451</v>
       </c>
@@ -2997,11 +3020,11 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>7.3285257656250069</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <f t="shared" si="1"/>
         <v>21.076515840277796</v>
       </c>
@@ -3012,11 +3035,11 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <f t="shared" si="2"/>
         <v>6.0810000000000013</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <f t="shared" si="3"/>
         <v>3.5486710434027628</v>
       </c>
@@ -3032,11 +3055,11 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f t="shared" si="0"/>
         <v>2.8295445156250034</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" si="1"/>
         <v>150.60402934027763</v>
       </c>
@@ -3047,11 +3070,11 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <f t="shared" si="2"/>
         <v>21.918999999999997</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <f t="shared" si="3"/>
         <v>194.71993021006946</v>
       </c>
@@ -3067,11 +3090,11 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" si="0"/>
         <v>1.2257257656249998</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f t="shared" si="1"/>
         <v>3.5271970069444287</v>
       </c>
@@ -3082,11 +3105,11 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <f t="shared" si="2"/>
         <v>10.949999999999998</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <f t="shared" si="3"/>
         <v>8.9114687934027792</v>
       </c>
@@ -3102,11 +3125,11 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="0"/>
         <v>3.3078515624999923E-2</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f t="shared" si="1"/>
         <v>16.450460006944457</v>
       </c>
@@ -3117,11 +3140,11 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <f t="shared" si="2"/>
         <v>3.7270000000000003</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <f t="shared" si="3"/>
         <v>17.958878210069418</v>
       </c>
@@ -3137,11 +3160,11 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
         <v>32.022866265624998</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f t="shared" si="1"/>
         <v>1.7710069444442133E-3</v>
       </c>
@@ -3152,11 +3175,11 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="Q24" s="12">
+      <c r="Q24" s="11">
         <f t="shared" si="2"/>
         <v>2.347999999999999</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="11">
         <f t="shared" si="3"/>
         <v>31.548348626736093</v>
       </c>
@@ -3172,11 +3195,11 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="0"/>
         <v>3.8137207656250021</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <f t="shared" si="1"/>
         <v>0.73773784027778211</v>
       </c>
@@ -3187,11 +3210,11 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <f t="shared" si="2"/>
         <v>5.1529999999999987</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <f t="shared" si="3"/>
         <v>7.9061723767361034</v>
       </c>
@@ -3231,14 +3254,14 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="12" t="s">
-        <v>20</v>
+      <c r="S27" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="T27" s="10"/>
     </row>
@@ -3260,15 +3283,15 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="Q28" s="12">
+      <c r="Q28" s="11">
         <f>AVERAGE(Q2:Q25)</f>
         <v>7.964791666666664</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <f>SQRT(SUM(R2:R25)/23)</f>
         <v>4.8648269103590538</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="11">
         <f>($D$2-$E$2)/($R$28/SQRT(24))</f>
         <v>-8.0207069441099623</v>
       </c>
@@ -3303,36 +3326,36 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="Q30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="Q30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" spans="17:20">
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q30:T33"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/P1-instruction/stroopdata-P1.xlsx
+++ b/P1-instruction/stroopdata-P1.xlsx
@@ -40,11 +40,11 @@
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1. 我们的自变量是什么？因变量是什么？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>自变量：参与者执行任务时的文字条件
@@ -85,85 +85,85 @@
     <rPh sb="32" eb="33">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.此任务的适当假设集是什么？你需要以文字和数学符号方式对假设集中的零假设和对立假设加以说明，并对数学符号进行定义。你想执行什么类型的统计检验？为你的选择提供正当理由（比如，为何该实验满足你所选统计检验的前置条件）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SS1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SS2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Si</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3. 报告关于此数据集的一些描述性统计。包含至少一个集中趋势测量和至少一个变异测量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Incongruent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4. 提供显示样本数据分布的一个或两个可视化。用一两句话说明你从图中观察到的结果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5. 现在，执行统计测试并报告你的结果。你的置信水平和关键统计值是多少？你是否成功拒绝零假设？对试验任务得出一个结论。结果是否与你的期望一致？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6. 可选：你觉得导致所观察到的效应的原因是什么？你是否能想到会取得类似效应的替代或类似任务？进行一些调查研究将有助于你思考这两个问题！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可视化见stoopdata工作簿。
 观察结果：两种文字条件下的任务结果都呈正偏斜分布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>差异</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>μ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>平方差</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Congruent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>置信水平：95%，显著性水平0.05
 结论：拒绝零假设，第一种条件下所花费的时间远低于第二种条件下任务花费的时间（推导过程见工作簿）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可能原因：人们潜意识会将文字与其代表的颜色关联起来，当要说出与文字不同的颜色时，需要花费更多的时间进行判断。
@@ -300,7 +300,7 @@
     <rPh sb="146" eb="147">
       <t>shu'liang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>均值：M(Congruent)≈14.05；M(Incongruent)≈22.16
@@ -314,147 +314,7 @@
     <rPh sb="45" eb="46">
       <t>pian'cha</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设M(Congruent)表示一致文字条件下总体花费的平均时间，M(Incongruent)表示非一致文字条件下总体花费的平均时间
-H0：两种文字条件下的实验时间没有显著区别，即M(Congruent)=M(Incongruent)
-Ha：两种文字条件下的实验时间有显著区别，即M(Congruent)≠M(Incongruent)
-统计检验方式：相依样本t检验
-理由：首先，我们不知道总体的μ和σ，只能从实验的样本去进行推断，因此无法使用z检验；其次，我们拥有的数据是两组样本量较小的样本，所以不适用单样本t检验；且两组样本数据是从同一批参与者先后测试并记录下的，所以样本是相依样本，因此采取相依样本t检验方法。</t>
-    <rPh sb="3" eb="4">
-      <t>liang'zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wen'zi'tiao'jian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>d</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'yan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xian'zhu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>qu'bie</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>tong'ji</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>jian'y</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>fang'shi</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>xiang'yi</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>jian'yan</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>li'you</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>zong'ti</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>d</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>zhi'neng</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>shi'yan</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>d</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>qu</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>tui'duan</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>xiang'yi</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>yang'b</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>neng</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>pai'ch</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>wen'zi'tiao</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>jian</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>qian'z</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>d</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>shi'ying</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>yin'su</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -471,20 +331,168 @@
       </rPr>
       <t>(23)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据α=0.05，自由度df=23，且为双尾t检验，得出t临界值为±2.069，而由计算出的t(Congruent)&lt;-2.069可得出结论：拒绝零假设，p&lt;0.025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设M(Congruent)表示一致文字条件下总体花费的平均时间，M(Incongruent)表示非一致文字条件下总体花费的平均时间
+H0：两种文字条件下的实验时间没有显著区别，即M(Congruent)=M(Incongruent)
+Ha：两种文字条件下的实验时间有显著区别，即M(Congruent)≠M(Incongruent)
+统计检验方式：相依样本t检验
+理由：首先，我们不知道总体的μ和σ，只能从实验的样本去进行推断，因此无法使用z检验；其次，两组样本来源同一总体，假定总体的分布呈正态分布，选定统计方法为t检验，且我们拥有的数据是两组样本量较小的样本，所以不适用单样本t检验；且两组样本数据是从同一批参与者先后测试并记录下的，所以样本是相依样本，因此采取相依样本t检验方法。</t>
+    <rPh sb="3" eb="4">
+      <t>liang'zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'zi'tiao'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xian'zhu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qu'bie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>jian'y</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>fang'shi</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xiang'yi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>jian'yan</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>li'you</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zong'ti</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>d</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>shi'yan</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>d</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>tui'duan</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>xiang'yi</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>pai'ch</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wen'zi'tiao</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>qian'z</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>d</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>shi'ying</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>yin'su</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -622,26 +630,26 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,19 +658,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2217,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2248,7 +2256,7 @@
     </row>
     <row r="5" spans="1:1" ht="165.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="37.5">
@@ -2322,7 +2330,7 @@
       <c r="A23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3260,8 +3268,8 @@
       <c r="R27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="14" t="s">
-        <v>25</v>
+      <c r="S27" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="T27" s="10"/>
     </row>
@@ -3326,36 +3334,36 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="Q30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
+      <c r="Q30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
     </row>
     <row r="33" spans="17:20">
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q30:T33"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/P1-instruction/stroopdata-P1.xlsx
+++ b/P1-instruction/stroopdata-P1.xlsx
@@ -342,7 +342,7 @@
 H0：两种文字条件下的实验时间没有显著区别，即M(Congruent)=M(Incongruent)
 Ha：两种文字条件下的实验时间有显著区别，即M(Congruent)≠M(Incongruent)
 统计检验方式：相依样本t检验
-理由：首先，我们不知道总体的μ和σ，只能从实验的样本去进行推断，因此无法使用z检验；其次，两组样本来源同一总体，假定总体的分布呈正态分布，选定统计方法为t检验，且我们拥有的数据是两组样本量较小的样本，所以不适用单样本t检验；且两组样本数据是从同一批参与者先后测试并记录下的，所以样本是相依样本，因此采取相依样本t检验方法。</t>
+理由：首先，我们不知道总体的μ和σ，只能从实验的样本去进行推断，因此无法使用z检验；其次，两组样本来源同一总体，假定总体的分布呈正态分布，选定统计方法为t检验，且我们拥有的数据是两组样本量较小的样本，所以不适用单样本t检验；且两组样本数据是从同一批参与者先后测试并记录下的，因而样本数据间存在相应性，所以样本是相依样本，因此采取相依样本t检验方法。</t>
     <rPh sb="3" eb="4">
       <t>liang'zhong</t>
     </rPh>
